--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/WEST_VIRGINIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/WEST_VIRGINIA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C19">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C47">
@@ -1064,7 +1064,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C51">
@@ -1199,7 +1199,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C61">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C63">
@@ -1256,7 +1256,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C65">
@@ -1269,7 +1269,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C66">
@@ -1321,7 +1321,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C70">
@@ -1365,7 +1365,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C73">
@@ -1378,7 +1378,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C74">
@@ -1461,7 +1461,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C87">
@@ -1645,7 +1645,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C93">
@@ -1762,7 +1762,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C102">
@@ -1866,7 +1866,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -1905,7 +1905,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C113">
@@ -1918,7 +1918,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C114">
@@ -1988,7 +1988,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C119">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C125">
@@ -2084,7 +2084,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C126">
@@ -2097,7 +2097,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C127">
@@ -2298,7 +2298,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C144">
@@ -2394,7 +2394,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C146">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C149">
@@ -2490,7 +2490,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C153">
@@ -2498,41 +2498,6 @@
       </c>
       <c r="D153">
         <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/WEST_VIRGINIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/WEST_VIRGINIA_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Sitalá</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>León</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1643,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1656,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Bartolo Coyotepec</t>
@@ -1669,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Juan Teita</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Miguel Tilquiápam</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>San Pedro Jicayán</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1760,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Ayutla</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Santa María Ozolotepec</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Santa María Yosoyúa</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tamazulápam Del Espíritu Santo</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1960,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1973,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Jerónimo Xayacatlán</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2082,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -2095,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2108,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2139,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2314,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Atzacan</t>
@@ -2327,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2340,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -2353,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -2366,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Ixhuacán De Los Reyes</t>
@@ -2379,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2392,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2405,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2418,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2449,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2462,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2475,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
